--- a/data/trans_dic/P25A_12_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A_12_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por trastornos de ansiedad</t>
+          <t>Población con limitación por trastornos de ansiedad (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,73%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>17,82%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,23</t>
+          <t>1,27; 8,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,25</t>
+          <t>3,84; 11,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,86</t>
+          <t>3,18; 9,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,14; 88,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,54; 14,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,97; 13,23</t>
+          <t>4,8; 14,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 11,22</t>
+          <t>6,98; 18,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,52; 60,63</t>
+          <t>7,26; 14,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,69</t>
+          <t>6,44; 12,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 11,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,78; 62,32</t>
+          <t>12,76; 24,28</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 12,46</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 12,36</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 9,71</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>10,56; 18,98</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,29</t>
+          <t>1,55; 5,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,91</t>
+          <t>2,3; 7,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,16</t>
+          <t>2,64; 5,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,12; 65,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 11,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,13</t>
+          <t>2,5; 7,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,06</t>
+          <t>6,65; 14,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,04; 69,97</t>
+          <t>5,58; 10,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,2</t>
+          <t>5,98; 11,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,49; 65,22</t>
+          <t>7,67; 14,24</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 9,38</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 7,8</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 7,97</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 9,83</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>7,65%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 10,18</t>
+          <t>1,7; 6,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,48</t>
+          <t>0,96; 4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,45</t>
+          <t>1,02; 3,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 66,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,52</t>
+          <t>3,46; 9,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,28</t>
+          <t>2,75; 7,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,41; 64,23</t>
+          <t>4,76; 9,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,16</t>
+          <t>4,45; 8,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,98; 58,48</t>
+          <t>5,48; 11,01</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 5,93</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 6,06</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 5,49</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5,19; 9,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>54,22%</t>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,15</t>
+          <t>2,13; 7,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,26</t>
+          <t>2,22; 7,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,48; 64,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,07</t>
+          <t>2,46; 6,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 8,75</t>
+          <t>3,54; 7,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,93; 61,71</t>
+          <t>4,82; 10,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 6,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,56; 59,81</t>
+          <t>7,52; 14,54</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 6,2</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 7,89</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 9,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11,09%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 4,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 5,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 4,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 6,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,71; 8,91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 9,06</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 9,46</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 13,03</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 6,47</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 6,88</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 6,78</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>7,09; 9,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por trastornos de ansiedad (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11634</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37732</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39865</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40209</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>48842</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>66772</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>80128</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>113172</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>60476</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>104505</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>119993</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>153381</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4295; 29290</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20357; 63122</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23172; 69282</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21328; 66631</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29286; 78935</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46131; 93313</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57397; 107922</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>81019; 154212</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>39486; 94537</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>76748; 144095</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>90960; 157268</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>114013; 205000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29361</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50065</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>64320</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>46756</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>94123</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>91331</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>122100</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>111879</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>123484</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>141396</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>186420</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>158635</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14337; 51550</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>27748; 87953</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42763; 96531</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26713; 81512</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>66330; 142763</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>68428; 123759</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>90061; 177532</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>82904; 153913</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>88805; 180585</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>109424; 189884</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>142312; 249448</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>123833; 211177</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25542</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18135</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21740</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>50276</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>35559</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>62302</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>71485</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>68495</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>61101</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>80437</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>93225</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>118771</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12134; 48486</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8103; 34010</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11179; 37924</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28714; 77650</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21008; 56394</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>44771; 90978</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>51681; 99484</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>49098; 98608</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>40015; 87875</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>58877; 108042</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>67464; 123883</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>89506; 157920</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>53540</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34063</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>44378</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>74706</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>55210</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>104421</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>128246</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>89273</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>148799</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31107; 102821</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19049; 64546</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>26983; 73610</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>49103; 101988</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36675; 81111</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>73528; 142272</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>89152; 176223</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>61662; 127773</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>114184; 196773</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>120077</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>139995</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>125925</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>181619</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>253230</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>275616</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>273714</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>397967</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>373307</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>415611</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>399638</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>579586</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>85951; 171740</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>102956; 193270</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>90737; 165885</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>137860; 232829</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>203942; 317981</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>229735; 322711</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>226507; 336888</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>338162; 467867</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>306405; 453354</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>352860; 481590</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>344048; 474604</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>498779; 664066</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
